--- a/Clinik/2. Терминоэлементы имен существительных/5. ТЭ существительных 4-го и 5-го склонения/practice.xlsx
+++ b/Clinik/2. Терминоэлементы имен существительных/5. ТЭ существительных 4-го и 5-го склонения/practice.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12624"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -811,21 +811,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:A912"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="39.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="52.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -848,7 +848,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -871,7 +871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>87</v>
       </c>
@@ -894,7 +894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>87</v>
       </c>
@@ -917,7 +917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>87</v>
       </c>
@@ -940,7 +940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>87</v>
       </c>
@@ -963,7 +963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>87</v>
       </c>
@@ -986,7 +986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>87</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>87</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>87</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>87</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>87</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>87</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>87</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>87</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>87</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>87</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>87</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>87</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>87</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>87</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>87</v>
       </c>
@@ -1400,22 +1400,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
     </row>
   </sheetData>
